--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE1CFF-0127-469B-AE27-8B78B9F48766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED5881-227C-4081-A974-84A7CF525631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22935" yWindow="825" windowWidth="14775" windowHeight="13230" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="-28260" yWindow="1470" windowWidth="24570" windowHeight="13230" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>database</t>
   </si>
@@ -88,23 +88,47 @@
     <t>LEGENDA FLUSSO</t>
   </si>
   <si>
-    <t>CRV</t>
-  </si>
-  <si>
-    <t>TARIFFARIO_XE</t>
-  </si>
-  <si>
-    <t>RFCF_CASHFLOW</t>
-  </si>
-  <si>
-    <t>RFCF_FATTURATO</t>
+    <t>rfcf_cashflow</t>
+  </si>
+  <si>
+    <t>rfcf_fatturato</t>
+  </si>
+  <si>
+    <t>crv</t>
+  </si>
+  <si>
+    <t>tariffario_xe</t>
+  </si>
+  <si>
+    <t>curato</t>
+  </si>
+  <si>
+    <t>netdo_codici_iva</t>
+  </si>
+  <si>
+    <t>tcr01_forniture_gas</t>
+  </si>
+  <si>
+    <t>xegy1_schede_tecniche_gas</t>
+  </si>
+  <si>
+    <t>dat_startDate</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_schede_tecniche_gas</t>
+  </si>
+  <si>
+    <t>Ricordarsi di inserire anche il nome del db in cui scrivere la tabella</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,11 +177,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -468,19 +502,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
     <col min="11" max="11" width="53.21875" customWidth="1"/>
   </cols>
@@ -512,6 +549,18 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
@@ -519,6 +568,24 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -527,6 +594,21 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,22 +632,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="J10" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -574,11 +657,18 @@
       </c>
       <c r="K13" s="3"/>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED5881-227C-4081-A974-84A7CF525631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F2890-2503-4AF0-AC1D-42AF2EECD61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28260" yWindow="1470" windowWidth="24570" windowHeight="13230" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>database</t>
   </si>
@@ -64,9 +64,6 @@
     <t>storicizzazione gestita solo con start date</t>
   </si>
   <si>
-    <t>nessuna storicizzazione</t>
-  </si>
-  <si>
     <t>campo_snapshot</t>
   </si>
   <si>
@@ -122,13 +119,163 @@
   </si>
   <si>
     <t>Ricordarsi di inserire anche il nome del db in cui scrivere la tabella</t>
+  </si>
+  <si>
+    <t>transactionalinterface</t>
+  </si>
+  <si>
+    <t>br_tcr_tariffexe_table</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_codici_iva</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_fatt_inca</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_fornitura</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_gruppi_fatturazione</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_assi_valori</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_classi_int</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_clu</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_cotp_prz_clu</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_fmt</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_forn_prof</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_forn_vof</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_pro_vof_comp</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_prof_prev</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_prof_val</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_rep_val</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_soglie_rel_cod_iva</t>
+  </si>
+  <si>
+    <t>vw_neta_fcf_voci_imposta</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_distributori</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_conto_cliente</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_dg_conti_cliente_bi</t>
+  </si>
+  <si>
+    <t>vw_fcf_blocchi_fatturazione</t>
+  </si>
+  <si>
+    <t>vw_fcf_soggetti</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_record_contratto</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_record_prezzi</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_record_contratto_nm</t>
+  </si>
+  <si>
+    <t>vw_dg_l1_record_prezzi_nm</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_forniture_gas</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_forniture_pwr</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_mapping_tcr_pwr</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_mapping_voci_contabili_pwr</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_quadratura_fatturato</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_quadratura_letture_gas</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_quadratura_letture_pwr</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_ricavi_gas</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_ricavi_pwr</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_cambi_prodotto</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_mapping_tcr_gas</t>
+  </si>
+  <si>
+    <t>vw_tcr_fcf_mapping_voci_contabili_gas</t>
+  </si>
+  <si>
+    <t>vw_xe_dbo_tbinstallationhighenergyconsumptions</t>
+  </si>
+  <si>
+    <t>vw_xe_dbo_tbinstallationinfo</t>
+  </si>
+  <si>
+    <t>vw_xe_dbo_tbitems</t>
+  </si>
+  <si>
+    <t>vw_xe_gas_tbinstallationinfo</t>
+  </si>
+  <si>
+    <t>vw_xe_dbo_tbinvoices_allegato</t>
+  </si>
+  <si>
+    <t>vw_xe_gas_tbinstallationexciseconf</t>
+  </si>
+  <si>
+    <t>vw_xe_gas_tbitems</t>
+  </si>
+  <si>
+    <t>vw_xe_gas_tbremi</t>
+  </si>
+  <si>
+    <t>vw_xe_dbo_tbinstallationexciseconf</t>
+  </si>
+  <si>
+    <t>vw_xe_gas_tbinvoices_allegato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +297,14 @@
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,21 +332,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -502,90 +682,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="53.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -593,21 +779,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
@@ -616,59 +805,961 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J5" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J7" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F2890-2503-4AF0-AC1D-42AF2EECD61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7C909-DD98-4D57-BF90-C1D61F6D5467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
   <si>
     <t>database</t>
   </si>
@@ -82,9 +85,6 @@
     <t>INFO NOME TABELLA STORICO</t>
   </si>
   <si>
-    <t>LEGENDA FLUSSO</t>
-  </si>
-  <si>
     <t>rfcf_cashflow</t>
   </si>
   <si>
@@ -124,9 +124,6 @@
     <t>transactionalinterface</t>
   </si>
   <si>
-    <t>br_tcr_tariffexe_table</t>
-  </si>
-  <si>
     <t>vw_neta_fcf_codici_iva</t>
   </si>
   <si>
@@ -269,6 +266,36 @@
   </si>
   <si>
     <t>vw_xe_gas_tbinvoices_allegato</t>
+  </si>
+  <si>
+    <t>data.storico_vw_dg_l1_distributori</t>
+  </si>
+  <si>
+    <t>data.storico_vw_fcf_soggetti</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_dbo_tbinstallationhighenergyconsumptions</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_dbo_tbinstallationinfo</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_dbo_tbitems</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_gas_tbinstallationinfo</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_gas_tbinstallationexciseconf</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_gas_tbitems</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_gas_tbremi</t>
+  </si>
+  <si>
+    <t>data.storico_vw_xe_dbo_tbinstallationexciseconf</t>
   </si>
 </sst>
 </file>
@@ -358,16 +385,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -682,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +724,8 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="53.28515625" customWidth="1"/>
   </cols>
@@ -730,13 +758,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -745,30 +773,30 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -781,13 +809,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -796,7 +824,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
@@ -807,75 +835,79 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -884,19 +916,17 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -905,16 +935,21 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -923,20 +958,21 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -945,20 +981,17 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="J11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -967,16 +1000,17 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -985,16 +1019,17 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1003,16 +1038,17 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1024,13 +1060,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1042,13 +1078,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1060,13 +1096,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1078,13 +1114,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -1096,13 +1132,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1114,13 +1150,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1132,34 +1168,36 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1168,13 +1206,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1186,13 +1224,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1204,34 +1242,36 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1240,13 +1280,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
@@ -1258,13 +1298,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
@@ -1276,13 +1316,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
@@ -1294,194 +1334,198 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1491,98 +1535,96 @@
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
@@ -1590,17 +1632,19 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1608,17 +1652,19 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1626,20 +1672,22 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1648,31 +1696,33 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -1680,17 +1730,19 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -1698,17 +1750,19 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
@@ -1716,50 +1770,33 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7C909-DD98-4D57-BF90-C1D61F6D5467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D8B0CE-3B5A-409A-A2F1-1BB0A5BB595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
   <si>
     <t>database</t>
   </si>
@@ -61,12 +61,6 @@
     <t>no_storico</t>
   </si>
   <si>
-    <t>storicizzazione gestita con I parametri start date e end date</t>
-  </si>
-  <si>
-    <t>storicizzazione gestita solo con start date</t>
-  </si>
-  <si>
     <t>campo_snapshot</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>netdo_codici_iva</t>
   </si>
   <si>
-    <t>tcr01_forniture_gas</t>
-  </si>
-  <si>
     <t>xegy1_schede_tecniche_gas</t>
   </si>
   <si>
@@ -124,178 +115,169 @@
     <t>transactionalinterface</t>
   </si>
   <si>
-    <t>vw_neta_fcf_codici_iva</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_fatt_inca</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_fornitura</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_gruppi_fatturazione</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_assi_valori</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_classi_int</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_clu</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_cotp_prz_clu</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_fmt</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_forn_prof</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_forn_vof</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_pro_vof_comp</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_prof_prev</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_prof_val</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_rep_val</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_soglie_rel_cod_iva</t>
-  </si>
-  <si>
-    <t>vw_neta_fcf_voci_imposta</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_distributori</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_conto_cliente</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_dg_conti_cliente_bi</t>
-  </si>
-  <si>
-    <t>vw_fcf_blocchi_fatturazione</t>
-  </si>
-  <si>
-    <t>vw_fcf_soggetti</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_record_contratto</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_record_prezzi</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_record_contratto_nm</t>
-  </si>
-  <si>
-    <t>vw_dg_l1_record_prezzi_nm</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_forniture_gas</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_forniture_pwr</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_mapping_tcr_pwr</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_mapping_voci_contabili_pwr</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_quadratura_fatturato</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_quadratura_letture_gas</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_quadratura_letture_pwr</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_ricavi_gas</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_ricavi_pwr</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_cambi_prodotto</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_mapping_tcr_gas</t>
-  </si>
-  <si>
-    <t>vw_tcr_fcf_mapping_voci_contabili_gas</t>
-  </si>
-  <si>
-    <t>vw_xe_dbo_tbinstallationhighenergyconsumptions</t>
-  </si>
-  <si>
-    <t>vw_xe_dbo_tbinstallationinfo</t>
-  </si>
-  <si>
-    <t>vw_xe_dbo_tbitems</t>
-  </si>
-  <si>
-    <t>vw_xe_gas_tbinstallationinfo</t>
-  </si>
-  <si>
-    <t>vw_xe_dbo_tbinvoices_allegato</t>
-  </si>
-  <si>
-    <t>vw_xe_gas_tbinstallationexciseconf</t>
-  </si>
-  <si>
-    <t>vw_xe_gas_tbitems</t>
-  </si>
-  <si>
-    <t>vw_xe_gas_tbremi</t>
-  </si>
-  <si>
-    <t>vw_xe_dbo_tbinstallationexciseconf</t>
-  </si>
-  <si>
-    <t>vw_xe_gas_tbinvoices_allegato</t>
-  </si>
-  <si>
-    <t>data.storico_vw_dg_l1_distributori</t>
-  </si>
-  <si>
-    <t>data.storico_vw_fcf_soggetti</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_dbo_tbinstallationhighenergyconsumptions</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_dbo_tbinstallationinfo</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_dbo_tbitems</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_gas_tbinstallationinfo</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_gas_tbinstallationexciseconf</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_gas_tbitems</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_gas_tbremi</t>
-  </si>
-  <si>
-    <t>data.storico_vw_xe_dbo_tbinstallationexciseconf</t>
+    <t>netdo_fatt_inc_tot</t>
+  </si>
+  <si>
+    <t>netdo_fornitura</t>
+  </si>
+  <si>
+    <t>netdo_gruppi_fatturazione</t>
+  </si>
+  <si>
+    <t>netdo_rep_assi_valori</t>
+  </si>
+  <si>
+    <t>netdo_classi_int</t>
+  </si>
+  <si>
+    <t>netdo_rep_clu</t>
+  </si>
+  <si>
+    <t>netdo_rep_cotp_prz_clu</t>
+  </si>
+  <si>
+    <t>netdo_rep_fmt</t>
+  </si>
+  <si>
+    <t>netdo_rep_forn_prof</t>
+  </si>
+  <si>
+    <t>netdo_rep_forn_vof</t>
+  </si>
+  <si>
+    <t>netdo_rep_pro_vof_comp</t>
+  </si>
+  <si>
+    <t>netdo_rep_pro_prof_prev</t>
+  </si>
+  <si>
+    <t>netdo_rep_prof_val</t>
+  </si>
+  <si>
+    <t>netdo_rep_val</t>
+  </si>
+  <si>
+    <t>netdo_soglie_rel_cod_iva</t>
+  </si>
+  <si>
+    <t>netdo_voci_imposta</t>
+  </si>
+  <si>
+    <t>clcri_distributori</t>
+  </si>
+  <si>
+    <t>netdo_conti_clienti_day</t>
+  </si>
+  <si>
+    <t>netdo_conti_clienti_bi</t>
+  </si>
+  <si>
+    <t>netdo_blocchi_fatturazione</t>
+  </si>
+  <si>
+    <t>clcri_soggetti</t>
+  </si>
+  <si>
+    <t>etrm1_record_contratto</t>
+  </si>
+  <si>
+    <t>etrm1_l0_record</t>
+  </si>
+  <si>
+    <t>etrm1_record_contratto_nm</t>
+  </si>
+  <si>
+    <t>etrm1_l0_record_nm</t>
+  </si>
+  <si>
+    <t>tcr_01_forniture_gas</t>
+  </si>
+  <si>
+    <t>tcr_01_forniture_pwr</t>
+  </si>
+  <si>
+    <t>tcr_01_mapping_tcr_pwr</t>
+  </si>
+  <si>
+    <t>tcr_01_mapping_voci_contabili_pwr</t>
+  </si>
+  <si>
+    <t>tcr_01_quadratura_fatturato</t>
+  </si>
+  <si>
+    <t>tcr_01_quadratura_letture_gas</t>
+  </si>
+  <si>
+    <t>tcr_01_quadratura_letture_pwr</t>
+  </si>
+  <si>
+    <t>tcr_01_ricavi_gas</t>
+  </si>
+  <si>
+    <t>tcr_01_ricavi_pwr</t>
+  </si>
+  <si>
+    <t>tcr_01_cambio_prodottto</t>
+  </si>
+  <si>
+    <t>tcr_01_mapping_tcr_gas</t>
+  </si>
+  <si>
+    <t>tcr_01_mapping_voci_contabili_gas</t>
+  </si>
+  <si>
+    <t>xegy1_installazione_hec_pwr</t>
+  </si>
+  <si>
+    <t>xegy1_schede_tecniche_pwr</t>
+  </si>
+  <si>
+    <t>xegy1_voci_pwr</t>
+  </si>
+  <si>
+    <t>xegy1_sottotestate_pwr</t>
+  </si>
+  <si>
+    <t>xegy1_accise_gas</t>
+  </si>
+  <si>
+    <t>xegy1_voci_gas</t>
+  </si>
+  <si>
+    <t>xegy1_voci_remi</t>
+  </si>
+  <si>
+    <t>xegy1_accise_pwr</t>
+  </si>
+  <si>
+    <t>xegy1_sottotestate_gas</t>
+  </si>
+  <si>
+    <t>data.storico_clcri_distributori</t>
+  </si>
+  <si>
+    <t>data.storico_clcri_soggetti</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_installazione_hec_pwr</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_schede_tecniche_pwr</t>
+  </si>
+  <si>
+    <t>data.storico_voci_pwr</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_accise_gas</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_voci_gas</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_voci_remi</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_accise_pwr</t>
   </si>
 </sst>
 </file>
@@ -378,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -395,6 +377,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -709,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,14 +709,14 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -744,27 +728,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -773,6 +758,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
@@ -780,68 +766,58 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+      <c r="A3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -850,42 +826,40 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -894,20 +868,21 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -916,17 +891,17 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -935,21 +910,17 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -958,21 +929,17 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -981,17 +948,17 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -1000,17 +967,17 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -1019,17 +986,17 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1038,17 +1005,17 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1057,16 +1024,17 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1075,16 +1043,17 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1093,16 +1062,17 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1111,34 +1081,38 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1147,16 +1121,17 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1165,54 +1140,57 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1221,16 +1199,17 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1239,36 +1218,36 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -1277,334 +1256,356 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -1613,38 +1614,38 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1653,18 +1654,19 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1673,36 +1675,40 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1711,92 +1717,34 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D8B0CE-3B5A-409A-A2F1-1BB0A5BB595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF6DF0-B087-4730-961B-A01D27D62CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -190,42 +190,6 @@
     <t>etrm1_l0_record_nm</t>
   </si>
   <si>
-    <t>tcr_01_forniture_gas</t>
-  </si>
-  <si>
-    <t>tcr_01_forniture_pwr</t>
-  </si>
-  <si>
-    <t>tcr_01_mapping_tcr_pwr</t>
-  </si>
-  <si>
-    <t>tcr_01_mapping_voci_contabili_pwr</t>
-  </si>
-  <si>
-    <t>tcr_01_quadratura_fatturato</t>
-  </si>
-  <si>
-    <t>tcr_01_quadratura_letture_gas</t>
-  </si>
-  <si>
-    <t>tcr_01_quadratura_letture_pwr</t>
-  </si>
-  <si>
-    <t>tcr_01_ricavi_gas</t>
-  </si>
-  <si>
-    <t>tcr_01_ricavi_pwr</t>
-  </si>
-  <si>
-    <t>tcr_01_cambio_prodottto</t>
-  </si>
-  <si>
-    <t>tcr_01_mapping_tcr_gas</t>
-  </si>
-  <si>
-    <t>tcr_01_mapping_voci_contabili_gas</t>
-  </si>
-  <si>
     <t>xegy1_installazione_hec_pwr</t>
   </si>
   <si>
@@ -278,6 +242,42 @@
   </si>
   <si>
     <t>data.storico_xegy1_accise_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_forniture_gas</t>
+  </si>
+  <si>
+    <t>tcr01_forniture_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_mapping_tcr_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_mapping_voci_contabili_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_quadratura_fatturato</t>
+  </si>
+  <si>
+    <t>tcr01_quadratura_letture_gas</t>
+  </si>
+  <si>
+    <t>tcr01_quadratura_letture_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_ricavi_gas</t>
+  </si>
+  <si>
+    <t>tcr01_ricavi_pwr</t>
+  </si>
+  <si>
+    <t>tcr01_cambio_prodottto</t>
+  </si>
+  <si>
+    <t>tcr01_mapping_tcr_gas</t>
+  </si>
+  <si>
+    <t>tcr01_mapping_voci_contabili_gas</t>
   </si>
 </sst>
 </file>
@@ -371,14 +371,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -758,11 +758,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -845,11 +845,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -868,11 +868,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -891,7 +891,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -910,7 +910,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -929,7 +929,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -948,7 +948,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -967,7 +967,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -986,7 +986,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1005,7 +1005,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1024,7 +1024,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1043,7 +1043,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1062,7 +1062,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1081,7 +1081,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1100,9 +1100,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1121,7 +1121,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1140,7 +1140,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1159,7 +1159,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1178,9 +1178,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1199,7 +1199,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1218,7 +1218,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1237,7 +1237,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1256,7 +1256,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1289,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -1427,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="10"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -1542,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1551,9 +1551,9 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -1563,7 +1563,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1572,9 +1572,9 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1593,9 +1593,9 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -1616,7 +1616,7 @@
       <c r="H43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1626,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -1635,7 +1635,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1654,9 +1654,9 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1675,9 +1675,9 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1696,9 +1696,9 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I47" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1717,9 +1717,9 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1729,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
@@ -1738,7 +1738,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="10"/>
+      <c r="I49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF6DF0-B087-4730-961B-A01D27D62CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CC34AD-4383-46C5-859D-5F809E843709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>xegy1_voci_gas</t>
   </si>
   <si>
-    <t>xegy1_voci_remi</t>
-  </si>
-  <si>
     <t>xegy1_accise_pwr</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>data.storico_xegy1_voci_gas</t>
   </si>
   <si>
-    <t>data.storico_xegy1_voci_remi</t>
-  </si>
-  <si>
     <t>data.storico_xegy1_accise_pwr</t>
   </si>
   <si>
@@ -278,6 +272,12 @@
   </si>
   <si>
     <t>tcr01_mapping_voci_contabili_gas</t>
+  </si>
+  <si>
+    <t>data.storico_xegy1_remi</t>
+  </si>
+  <si>
+    <t>xegy1_remi</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
@@ -1289,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -1427,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1551,7 +1551,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
     </row>
@@ -1593,7 +1593,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="8"/>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" s="8"/>
     </row>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1696,7 +1696,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I47" s="8"/>
     </row>
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1717,7 +1717,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I48" s="8"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CC34AD-4383-46C5-859D-5F809E843709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADE63C-58B2-46B7-A701-66B2273DA54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>netdo_conti_clienti_day</t>
   </si>
   <si>
-    <t>netdo_conti_clienti_bi</t>
-  </si>
-  <si>
     <t>netdo_blocchi_fatturazione</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>xegy1_remi</t>
+  </si>
+  <si>
+    <t>netdo_conti_cliente_bi</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -1169,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -1178,7 +1178,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1228,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
@@ -1289,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -1427,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1542,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1551,7 +1551,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1572,7 +1572,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8"/>
     </row>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1593,7 +1593,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" s="8"/>
     </row>
@@ -1626,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1654,7 +1654,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="8"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1675,7 +1675,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="8"/>
     </row>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1696,7 +1696,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I47" s="8"/>
     </row>
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1717,7 +1717,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" s="8"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADE63C-58B2-46B7-A701-66B2273DA54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C5A831-0AA2-486A-813B-35489513EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="9600" yWindow="600" windowWidth="17880" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>clcri_distributori</t>
   </si>
   <si>
-    <t>netdo_conti_clienti_day</t>
-  </si>
-  <si>
     <t>netdo_blocchi_fatturazione</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>netdo_conti_cliente_bi</t>
+  </si>
+  <si>
+    <t>netdo_conti_cliente_day</t>
   </si>
 </sst>
 </file>
@@ -695,26 +695,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -809,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1100,11 +1100,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1123,7 +1123,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1142,7 +1142,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -1161,7 +1161,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -1178,11 +1178,11 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1201,7 +1201,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1220,7 +1220,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -1239,7 +1239,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -1258,7 +1258,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
@@ -1281,7 +1281,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -1304,7 +1304,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -1327,7 +1327,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -1350,7 +1350,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -1373,7 +1373,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -1396,7 +1396,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -1419,7 +1419,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1442,7 +1442,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -1465,7 +1465,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1488,7 +1488,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1511,7 +1511,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1534,7 +1534,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1551,11 +1551,11 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1572,11 +1572,11 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1593,11 +1593,11 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -1637,7 +1637,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1654,11 +1654,11 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1675,11 +1675,11 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1696,11 +1696,11 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1717,11 +1717,11 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C5A831-0AA2-486A-813B-35489513EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF86C1-ECB3-42EA-B9A0-44419638D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="600" windowWidth="17880" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="11988" yWindow="2220" windowWidth="28680" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="80">
   <si>
     <t>database</t>
   </si>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,6 +1740,144 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
     </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J2:K2"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF86C1-ECB3-42EA-B9A0-44419638D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8099B4C-A29F-4D30-8A04-D4533BF3162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="2220" windowWidth="28680" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="11292" yWindow="1524" windowWidth="28680" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$C$1:$C$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -259,9 +259,6 @@
     <t>tcr01_ricavi_pwr</t>
   </si>
   <si>
-    <t>tcr01_cambio_prodottto</t>
-  </si>
-  <si>
     <t>tcr01_mapping_tcr_gas</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>netdo_conti_cliente_day</t>
+  </si>
+  <si>
+    <t>tcr01_cambio_prodotto</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1696,7 +1696,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I47" s="8"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>5</v>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8099B4C-A29F-4D30-8A04-D4533BF3162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A0B59D-09D2-4CA5-A059-A97DC48BE7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="1524" windowWidth="28680" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="2844" yWindow="1236" windowWidth="33408" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="98">
   <si>
     <t>database</t>
   </si>
@@ -278,6 +278,60 @@
   </si>
   <si>
     <t>tcr01_cambio_prodotto</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>rfcf_configurazione_start_run</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>tcr_configurazione_storico_snapshot</t>
+  </si>
+  <si>
+    <t>tcr_decodifiche</t>
+  </si>
+  <si>
+    <t>tcr_codifiche_tariffario</t>
+  </si>
+  <si>
+    <t>tcr_mapping_xe_gas</t>
+  </si>
+  <si>
+    <t>tcr_mapping_xe_pwr</t>
+  </si>
+  <si>
+    <t>tcr_tariffario_xe_indici_fatturazione</t>
+  </si>
+  <si>
+    <t>rfcf_calendario_fatturazione_mensile_all_ver</t>
+  </si>
+  <si>
+    <t>rfcf_calendario_xe_date</t>
+  </si>
+  <si>
+    <t>rfcf_calendario_xe_forn</t>
+  </si>
+  <si>
+    <t>rfcf_estrazione_CE</t>
+  </si>
+  <si>
+    <t>rfcf_estrazione_DR</t>
+  </si>
+  <si>
+    <t>rfcf_parametri_previsione_extra</t>
+  </si>
+  <si>
+    <t>rfcf_forzatura_iva</t>
+  </si>
+  <si>
+    <t>rfcf_ordine_default_tioce</t>
+  </si>
+  <si>
+    <t>rfcf_tipo_regime</t>
   </si>
 </sst>
 </file>
@@ -693,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,6 +1932,294 @@
       <c r="H55" s="3"/>
       <c r="I55" s="8"/>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J2:K2"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\CONDIVISI\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A0B59D-09D2-4CA5-A059-A97DC48BE7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E779-2B0A-408B-8934-3EE7D6B00CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="1236" windowWidth="33408" windowHeight="14220" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="102">
   <si>
     <t>database</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>rfcf_tipo_regime</t>
+  </si>
+  <si>
+    <t>rfcf_storico_run_cashflow</t>
+  </si>
+  <si>
+    <t>rfcf_configurazione_start_run_cashflow</t>
+  </si>
+  <si>
+    <t>rfcf_decodifiche_cashflow</t>
+  </si>
+  <si>
+    <t>rfcf_parametri_check_decodifiche</t>
   </si>
 </sst>
 </file>
@@ -747,28 +759,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -795,7 +807,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -819,7 +831,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -841,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -863,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -882,7 +894,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -905,7 +917,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -928,7 +940,7 @@
       </c>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +959,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -966,7 +978,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -985,7 +997,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1016,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1035,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1054,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1073,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1092,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1111,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1130,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1149,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1170,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +1189,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1208,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1227,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1248,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1267,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1286,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1370,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1393,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1416,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1439,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1462,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1485,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1531,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1554,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1577,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1600,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1621,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1642,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1663,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1684,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1724,7 @@
       </c>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -1754,7 +1766,7 @@
       </c>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1787,7 @@
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1806,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1829,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1852,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>15</v>
       </c>
@@ -1863,7 +1875,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1898,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -1909,7 +1921,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1944,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1950,7 +1962,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +1980,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
@@ -1986,7 +1998,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2016,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2034,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +2052,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2070,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2088,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
@@ -2094,7 +2106,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
@@ -2112,7 +2124,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2142,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -2148,7 +2160,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2178,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
@@ -2184,7 +2196,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2214,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
@@ -2220,7 +2232,80 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H74" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}"/>
   <mergeCells count="3">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J6:K6"/>

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E779-2B0A-408B-8934-3EE7D6B00CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DF285-76E3-4779-B430-81A9A0C3149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="108">
   <si>
     <t>database</t>
   </si>
@@ -344,6 +344,24 @@
   </si>
   <si>
     <t>rfcf_parametri_check_decodifiche</t>
+  </si>
+  <si>
+    <t>rfcf_condizioni_contrattuali</t>
+  </si>
+  <si>
+    <t>rfcf_stanziamenti_costi_consumi_all_ver</t>
+  </si>
+  <si>
+    <t>rfcf_costi_distribuzione_consuntivi</t>
+  </si>
+  <si>
+    <t>rfcf_costi_materia_previsivi_fornitore</t>
+  </si>
+  <si>
+    <t>rfcf_derivati</t>
+  </si>
+  <si>
+    <t>rfcf_derivati_cons</t>
   </si>
 </sst>
 </file>
@@ -759,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,6 +2322,114 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H74" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}"/>
   <mergeCells count="3">

--- a/CONDIVISI/Configurazioni/Snapshot.xlsx
+++ b/CONDIVISI/Configurazioni/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\CONDIVISI\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DF285-76E3-4779-B430-81A9A0C3149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8BD0A6-1302-4191-AF29-9E5260A16EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2A60027-5977-4507-A25B-158DE4796371}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snapshot!$A$1:$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="112">
   <si>
     <t>database</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>rfcf_derivati_cons</t>
+  </si>
+  <si>
+    <t>clcri_sottotestata</t>
+  </si>
+  <si>
+    <t>clcri_testata_bolletta</t>
+  </si>
+  <si>
+    <t>data.storico_clcri_clcri_sottotestata</t>
+  </si>
+  <si>
+    <t>data.storico_clcri_testata_bolletta</t>
   </si>
 </sst>
 </file>
@@ -777,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,46 +929,42 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -966,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -976,6 +984,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
+      <c r="J8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -985,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -995,6 +1007,10 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
+      <c r="J9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1004,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1023,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -1042,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -1061,7 +1077,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -1080,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1099,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1118,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1137,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1156,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1172,20 +1188,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1196,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1212,18 +1226,20 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -1250,31 +1266,29 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1287,21 +1301,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1312,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -1331,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -1344,46 +1360,38 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
@@ -1396,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -1419,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -1442,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -1465,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -1488,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -1511,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1534,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -1551,13 +1559,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1580,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -1597,13 +1605,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1626,17 +1634,19 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H40" s="3"/>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1647,17 +1657,19 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1677,19 +1689,19 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -1698,7 +1710,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I43" s="8"/>
     </row>
@@ -1710,26 +1722,28 @@
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1738,7 +1752,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I45" s="8"/>
     </row>
@@ -1750,17 +1764,15 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H46" s="3"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1780,7 +1792,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I47" s="8"/>
     </row>
@@ -1792,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1801,7 +1813,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" s="8"/>
     </row>
@@ -1813,59 +1825,55 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="8"/>
@@ -1878,7 +1886,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
@@ -1901,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>5</v>
@@ -1924,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>5</v>
@@ -1947,7 +1955,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>5</v>
@@ -1964,39 +1972,49 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -2006,7 +2024,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>82</v>
@@ -2024,7 +2042,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>82</v>
@@ -2042,7 +2060,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>82</v>
@@ -2060,7 +2078,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>82</v>
@@ -2078,7 +2096,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>82</v>
@@ -2096,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>82</v>
@@ -2114,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>82</v>
@@ -2132,7 +2150,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>82</v>
@@ -2150,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>82</v>
@@ -2168,7 +2186,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>82</v>
@@ -2186,7 +2204,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>82</v>
@@ -2204,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>82</v>
@@ -2222,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>82</v>
@@ -2240,7 +2258,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>82</v>
@@ -2251,14 +2269,14 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>99</v>
+      <c r="A72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>82</v>
@@ -2269,14 +2287,14 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>98</v>
+      <c r="A73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>82</v>
@@ -2294,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>82</v>
@@ -2312,7 +2330,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>82</v>
@@ -2330,7 +2348,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>82</v>
@@ -2348,7 +2366,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>82</v>
@@ -2365,8 +2383,8 @@
       <c r="B78" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>104</v>
+      <c r="C78" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>82</v>
@@ -2383,8 +2401,8 @@
       <c r="B79" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>105</v>
+      <c r="C79" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>82</v>
@@ -2401,8 +2419,8 @@
       <c r="B80" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>106</v>
+      <c r="C80" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>82</v>
@@ -2419,8 +2437,8 @@
       <c r="B81" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>107</v>
+      <c r="C81" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>82</v>
@@ -2430,12 +2448,48 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H74" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}"/>
+  <autoFilter ref="A1:H76" xr:uid="{9F264DCE-3DF0-4009-A241-257AD3B63836}"/>
   <mergeCells count="3">
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
